--- a/0.일정/일정(이후승).xlsx
+++ b/0.일정/일정(이후승).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huseung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bit2019\workspace\MiniProject2\0.일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4766E9F-7284-4371-B583-AB00C41BE400}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440DFDF-F18D-46B7-A3A6-58F7A993A2BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46A311FF-7F77-44E4-BF7B-AA93D66ADFB1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>맛집 리스트 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>총 진행률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>asdfsadf</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -138,9 +142,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -151,6 +152,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD59E3CE-64CE-478D-A1A3-30C71FB9603C}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,108 +484,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>43546</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.6</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>43547</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>43548</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>43549</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>43550</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>43551</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>43552</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>43553</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/0.일정/일정(이후승).xlsx
+++ b/0.일정/일정(이후승).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bit2019\workspace\MiniProject2\0.일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440DFDF-F18D-46B7-A3A6-58F7A993A2BB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610EB4E1-5AE8-4DA7-8BDA-714600D7F009}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46A311FF-7F77-44E4-BF7B-AA93D66ADFB1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>맛집 리스트 페이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -44,10 +44,6 @@
   </si>
   <si>
     <t>총 진행률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdfsadf</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +471,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,10 +508,10 @@
         <v>43546</v>
       </c>
       <c r="B3" s="5">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="5">
         <v>0</v>
@@ -528,10 +524,18 @@
       <c r="A4" s="4">
         <v>43547</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="E4" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -549,9 +553,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">

--- a/0.일정/일정(이후승).xlsx
+++ b/0.일정/일정(이후승).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bit2019\workspace\MiniProject2\0.일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610EB4E1-5AE8-4DA7-8BDA-714600D7F009}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D734AC2A-3CCC-4C27-B7E0-4D8EC05AC9D8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{46A311FF-7F77-44E4-BF7B-AA93D66ADFB1}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,10 +528,10 @@
         <v>0.8</v>
       </c>
       <c r="C4" s="5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="3">
         <v>80</v>
@@ -541,37 +541,69 @@
       <c r="A5" s="4">
         <v>43548</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>43549</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>43550</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>43551</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>90</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
